--- a/old_data/png_adminboundaries_tabulardata.xlsx
+++ b/old_data/png_adminboundaries_tabulardata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Map4PNG\old_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8EAB8B-9474-49AA-A7B9-6508721EC940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA726C-2093-465A-9811-B411AC915B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
     <sheet name="ADM2" sheetId="3" r:id="rId3"/>
     <sheet name="ADM3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2775,7 +2788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2783,6 +2796,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3152,8 +3167,8 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,25 +3239,29 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>42059</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43593</v>
-      </c>
-      <c r="K3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>42059</v>
+      </c>
+      <c r="I3" s="4">
+        <v>43593</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>29558.609375</v>
       </c>
     </row>
@@ -3684,29 +3703,29 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4">
-        <v>42059</v>
-      </c>
-      <c r="I23" s="4">
-        <v>43593</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6">
+        <v>42059</v>
+      </c>
+      <c r="I23" s="6">
+        <v>43593</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
         <v>98121.578125</v>
       </c>
     </row>
